--- a/people.xlsx
+++ b/people.xlsx
@@ -26,7 +26,7 @@
     <t>Calil</t>
   </si>
   <si>
-    <t>Resid</t>
+    <t>Nurlana</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C3" s="0"/>
     </row>

--- a/people.xlsx
+++ b/people.xlsx
@@ -12,21 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Calil</t>
   </si>
   <si>
+    <t>Ahmadov</t>
+  </si>
+  <si>
     <t>Nurlana</t>
+  </si>
+  <si>
+    <t>Azizova</t>
+  </si>
+  <si>
+    <t>Fatimə</t>
+  </si>
+  <si>
+    <t>Ahmadova</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,19 +104,34 @@
       <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -23,22 +23,10 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Calil</t>
+    <t>C</t>
   </si>
   <si>
-    <t>Ahmadov</t>
-  </si>
-  <si>
-    <t>Nurlana</t>
-  </si>
-  <si>
-    <t>Azizova</t>
-  </si>
-  <si>
-    <t>Fatimə</t>
-  </si>
-  <si>
-    <t>Ahmadova</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -83,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,28 +99,6 @@
         <v>19.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
